--- a/medicine/Pharmacie/Guselkumab/Guselkumab.xlsx
+++ b/medicine/Pharmacie/Guselkumab/Guselkumab.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le guselkumab est un anticorps monoclonal dirigé contre l'interleukine 23 et utilisé dans le traitement de certaines formes de psoriasis.
 </t>
@@ -511,7 +523,9 @@
           <t>Mode d'action</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est dirigé contre la sous-unité p19 de l'interleukine 23, empêchant sa fixation à son récepteur et la production de plusieurs cytokines.
 </t>
@@ -542,9 +556,11 @@
           <t>Efficacité</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il a testé dans les formes modérées à sévères du psoriasis. Dans les cas résistants à l'ustekinumab, le guselkumab permet d'avoir une amélioration sensible de la maladie dans un peu plus d'un tiers des cas[1]. Son efficacité est supérieure à celle de l'adalimumab[2] et à celle du secukinumab[3]. Il est également actif sur le rhumatisme psoriasique, que cela soit en première[4] ou en seconde ligne[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il a testé dans les formes modérées à sévères du psoriasis. Dans les cas résistants à l'ustekinumab, le guselkumab permet d'avoir une amélioration sensible de la maladie dans un peu plus d'un tiers des cas. Son efficacité est supérieure à celle de l'adalimumab et à celle du secukinumab. Il est également actif sur le rhumatisme psoriasique, que cela soit en première ou en seconde ligne.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Effets secondaires</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">le guselkumab favorise la survenue d'infections, parfois sévères. Il peut exister une élévation des enzymes hépatiques[6].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">le guselkumab favorise la survenue d'infections, parfois sévères. Il peut exister une élévation des enzymes hépatiques.
 </t>
         </is>
       </c>
@@ -604,9 +622,11 @@
           <t>Considérations économiques</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le coût d'une cure, en 2017, est près de 29 000 dollars, ce qui en constitue la biothérapie la plus chère dans le traitement du psoriasis[6].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le coût d'une cure, en 2017, est près de 29 000 dollars, ce qui en constitue la biothérapie la plus chère dans le traitement du psoriasis.
 </t>
         </is>
       </c>
